--- a/db-first.XLSX
+++ b/db-first.XLSX
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\Boolean\esercitazione_boolean\41-50\48\db-first\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A25773-DAA6-42F7-9A4E-603D46BC7E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>date-acquired</t>
+  </si>
+  <si>
+    <t>date-expiration</t>
+  </si>
+  <si>
+    <t>carne</t>
+  </si>
+  <si>
+    <t>vino</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>merce supermercato</t>
+  </si>
+  <si>
+    <t>uova</t>
+  </si>
+  <si>
+    <t>latte</t>
+  </si>
+  <si>
+    <t>caratteristiche</t>
+  </si>
+  <si>
+    <t>Items:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id: </t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>date-acquired:</t>
+  </si>
+  <si>
+    <t>date-expiration:</t>
+  </si>
+  <si>
+    <t>price(in centesimi):</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>not-null</t>
+  </si>
+  <si>
+    <t>codice-prodotto</t>
+  </si>
+  <si>
+    <t>codice-prodotto:</t>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+  </si>
+  <si>
+    <t>prezzo(in centesimi)</t>
+  </si>
+  <si>
+    <t>default(0)</t>
+  </si>
+  <si>
+    <t>primay_key</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,11 +146,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +445,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44401</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>350</v>
+      </c>
+      <c r="F4" s="2">
+        <v>56746534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44401</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>23454657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44401</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>560</v>
+      </c>
+      <c r="F6" s="2">
+        <v>76542341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44401</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>98763643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44401</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6500</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12145487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>